--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinqi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/lalala/项目/-/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -513,10 +513,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D14" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
         <v>42748.522476851853</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
         <v>42748.522546296299</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -762,7 +762,7 @@
         <v>42749.522581018522</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -776,7 +776,7 @@
         <v>42793.542395833334</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
         <v>42781.60596064815</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -804,7 +804,7 @@
         <v>42750.523773148147</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -818,7 +818,7 @@
         <v>42748.526134259257</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -832,7 +832,7 @@
         <v>42755.723981481482</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -846,7 +846,7 @@
         <v>42756.398298611108</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -860,7 +860,7 @@
         <v>42756.398379629631</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -874,7 +874,7 @@
         <v>42757.601273148146</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -888,7 +888,7 @@
         <v>42770.737916666665</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -902,7 +902,7 @@
         <v>42793.544409722221</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -915,8 +915,11 @@
       <c r="D29" s="1">
         <v>42793.544456018521</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -930,7 +933,7 @@
         <v>42810.548854166664</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -944,7 +947,7 @@
         <v>42816.724004629628</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -513,10 +513,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +535,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>25142.33</v>
+        <v>23842.33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2069,6 +2069,17 @@
       </c>
       <c r="D128" s="1">
         <v>43290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>-1300</v>
+      </c>
+      <c r="D129" s="1">
+        <v>43350</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -513,10 +513,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +535,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>23842.33</v>
+        <v>31242.33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2080,6 +2080,39 @@
       </c>
       <c r="D129" s="1">
         <v>43350</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>-100</v>
+      </c>
+      <c r="D130" s="1">
+        <v>43353</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>-3000</v>
+      </c>
+      <c r="D131" s="1">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>10500</v>
+      </c>
+      <c r="D132" s="1">
+        <v>43357</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -513,10 +513,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +535,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>31242.33</v>
+        <v>31197.33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2106,13 +2106,24 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132">
         <v>10500</v>
       </c>
       <c r="D132" s="1">
         <v>43357</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>-45</v>
+      </c>
+      <c r="D133" s="1">
+        <v>43374</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>type</t>
   </si>
@@ -127,6 +127,13 @@
     <t>合计</t>
     <rPh sb="0" eb="1">
       <t>he ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <rPh sb="0" eb="1">
+      <t>fang zu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,10 +520,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +542,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>31197.33</v>
+        <v>24197.33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2124,6 +2131,20 @@
       </c>
       <c r="D133" s="1">
         <v>43374</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>-7000</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="1">
+        <v>43385</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -520,10 +520,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>24197.33</v>
+        <v>22597.33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2145,6 +2145,17 @@
       </c>
       <c r="D134" s="1">
         <v>43385</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>-1600</v>
+      </c>
+      <c r="D135" s="1">
+        <v>43386</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -520,10 +520,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>22597.33</v>
+        <v>17597.330000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2156,6 +2156,17 @@
       </c>
       <c r="D135" s="1">
         <v>43386</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>-5000</v>
+      </c>
+      <c r="D136" s="1">
+        <v>43390</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -520,10 +520,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>17597.330000000002</v>
+        <v>17397.330000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,6 +2167,17 @@
       </c>
       <c r="D136" s="1">
         <v>43390</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>-200</v>
+      </c>
+      <c r="D137" s="1">
+        <v>43387</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -520,10 +520,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>17397.330000000002</v>
+        <v>12397.330000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2178,6 +2178,17 @@
       </c>
       <c r="D137" s="1">
         <v>43387</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>-5000</v>
+      </c>
+      <c r="D138" s="1">
+        <v>43391</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -520,10 +520,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>12397.330000000002</v>
+        <v>12277.330000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2189,6 +2189,17 @@
       </c>
       <c r="D138" s="1">
         <v>43391</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>-120</v>
+      </c>
+      <c r="D139" s="1">
+        <v>43394</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -520,10 +520,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>12277.330000000002</v>
+        <v>10277.330000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,6 +2200,17 @@
       </c>
       <c r="D139" s="1">
         <v>43394</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>-2000</v>
+      </c>
+      <c r="D140" s="1">
+        <v>43411</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -520,10 +520,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>10277.330000000002</v>
+        <v>8977.3300000000017</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2211,6 +2211,17 @@
       </c>
       <c r="D140" s="1">
         <v>43411</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>-1300</v>
+      </c>
+      <c r="D141" s="1">
+        <v>43417</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -520,10 +520,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>8977.3300000000017</v>
+        <v>19477.330000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2222,6 +2222,17 @@
       </c>
       <c r="D141" s="1">
         <v>43417</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>10500</v>
+      </c>
+      <c r="D142" s="1">
+        <v>43419</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -520,10 +520,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>19477.330000000002</v>
+        <v>18977.330000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2233,6 +2233,17 @@
       </c>
       <c r="D142" s="1">
         <v>43419</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>-500</v>
+      </c>
+      <c r="D143" s="1">
+        <v>43442</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -520,10 +520,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>18977.330000000002</v>
+        <v>32707.33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2244,6 +2244,17 @@
       </c>
       <c r="D143" s="1">
         <v>43442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>13730</v>
+      </c>
+      <c r="D144" s="1">
+        <v>43448</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>type</t>
   </si>
@@ -134,6 +134,24 @@
     <t>房租</t>
     <rPh sb="0" eb="1">
       <t>fang zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <rPh sb="0" eb="1">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <rPh sb="0" eb="1">
+      <t>he'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,9 +197,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,10 +547,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,20 +559,25 @@
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="47.5" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>32707.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25307.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -559,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -572,8 +604,26 @@
       <c r="D4" s="1">
         <v>42712</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>2016</v>
+      </c>
+      <c r="I4">
+        <v>2017</v>
+      </c>
+      <c r="J4">
+        <v>2018</v>
+      </c>
+      <c r="K4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -586,8 +636,31 @@
       <c r="D5" s="1">
         <v>42714.51972222222</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>SUMIF($A$4:$A$182,F5,$B$4:$B$182)</f>
+        <v>-233863.41</v>
+      </c>
+      <c r="H5">
+        <f>SUMIF($A$4:$A$12,$F5,$B$4:$B$12)</f>
+        <v>-28215</v>
+      </c>
+      <c r="I5">
+        <f>SUMIF($A$13:$A$81,$F5,$B$13:$B$81)</f>
+        <v>-95340.97</v>
+      </c>
+      <c r="J5">
+        <f>SUMIF($A$81:$A$144,$F5,$B$81:$B$144)</f>
+        <v>-105407.44</v>
+      </c>
+      <c r="K5">
+        <f>SUMIF($A$145:$A$182,$F5,$B$145:$B$182)</f>
+        <v>-7400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -600,8 +673,31 @@
       <c r="D6" s="1">
         <v>42719.521736111114</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>SUMIF($A$4:$A$182,F6,$B$4:$B$182)</f>
+        <v>259170.74000000002</v>
+      </c>
+      <c r="H6">
+        <f>SUMIF($A$4:$A$12,$F6,$B$4:$B$12)</f>
+        <v>14703.02</v>
+      </c>
+      <c r="I6">
+        <f>SUMIF($A$13:$A$81,$F6,$B$13:$B$81)</f>
+        <v>111420.06</v>
+      </c>
+      <c r="J6">
+        <f>SUMIF($A$81:$A$144,$F6,$B$81:$B$144)</f>
+        <v>133047.66</v>
+      </c>
+      <c r="K6">
+        <f>SUMIF($A$145:$A$182,$F6,$B$145:$B$182)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -615,7 +711,7 @@
         <v>42728.521851851852</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -629,7 +725,7 @@
         <v>42729.521944444445</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -642,8 +738,31 @@
       <c r="D9" s="1">
         <v>42731.521990740737</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <f>SUM(G5:G6)</f>
+        <v>25307.330000000016</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9" si="0">SUM(H5:H6)</f>
+        <v>-13511.98</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:K9" si="1">SUM(I5:I6)</f>
+        <v>16079.089999999997</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>27640.22</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-7400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -656,8 +775,11 @@
       <c r="D10" s="1">
         <v>42734.522106481483</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -670,8 +792,11 @@
       <c r="D11" s="1">
         <v>42734.522199074076</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -685,7 +810,7 @@
         <v>42734.522256944445</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -699,7 +824,7 @@
         <v>42744.522303240738</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -713,7 +838,7 @@
         <v>42744.52238425926</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -727,7 +852,7 @@
         <v>42745.522430555553</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -741,7 +866,7 @@
         <v>42748.522476851853</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -755,7 +880,7 @@
         <v>42748.522546296299</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -769,7 +894,7 @@
         <v>42749.522581018522</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -783,7 +908,7 @@
         <v>42793.542395833334</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -797,7 +922,7 @@
         <v>42781.60596064815</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -811,7 +936,7 @@
         <v>42750.523773148147</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -825,7 +950,7 @@
         <v>42748.526134259257</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -839,7 +964,7 @@
         <v>42755.723981481482</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -853,7 +978,7 @@
         <v>42756.398298611108</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -867,7 +992,7 @@
         <v>42756.398379629631</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -881,7 +1006,7 @@
         <v>42757.601273148146</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -895,7 +1020,7 @@
         <v>42770.737916666665</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -909,7 +1034,7 @@
         <v>42793.544409722221</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -922,11 +1047,8 @@
       <c r="D29" s="1">
         <v>42793.544456018521</v>
       </c>
-      <c r="G29">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -940,7 +1062,7 @@
         <v>42810.548854166664</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -954,7 +1076,7 @@
         <v>42816.724004629628</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2257,8 +2379,33 @@
         <v>43448</v>
       </c>
     </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>-400</v>
+      </c>
+      <c r="D145" s="1">
+        <v>43474</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>-7000</v>
+      </c>
+      <c r="D146" s="1">
+        <v>43476</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D3:D128"/>
+  <mergeCells count="1">
+    <mergeCell ref="G10:I10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -204,10 +204,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,10 +547,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1000)</f>
-        <v>25307.33</v>
+        <v>22107.33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H4">
@@ -641,7 +641,7 @@
       </c>
       <c r="G5">
         <f>SUMIF($A$4:$A$182,F5,$B$4:$B$182)</f>
-        <v>-233863.41</v>
+        <v>-237063.41</v>
       </c>
       <c r="H5">
         <f>SUMIF($A$4:$A$12,$F5,$B$4:$B$12)</f>
@@ -657,7 +657,7 @@
       </c>
       <c r="K5">
         <f>SUMIF($A$145:$A$182,$F5,$B$145:$B$182)</f>
-        <v>-7400</v>
+        <v>-10600</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
       </c>
       <c r="G9">
         <f>SUM(G5:G6)</f>
-        <v>25307.330000000016</v>
+        <v>22107.330000000016</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9" si="0">SUM(H5:H6)</f>
@@ -759,7 +759,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>-7400</v>
+        <v>-10600</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -775,9 +775,9 @@
       <c r="D10" s="1">
         <v>42734.522106481483</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2399,6 +2399,17 @@
       </c>
       <c r="D146" s="1">
         <v>43476</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>-3200</v>
+      </c>
+      <c r="D147" s="1">
+        <v>43479</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -547,10 +547,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K147"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,8 +573,8 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2">
-        <f>SUM(B4:B1000)</f>
-        <v>22107.33</v>
+        <f>SUM(B4:B1001)</f>
+        <v>31607.33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f>SUMIF($A$4:$A$182,F5,$B$4:$B$182)</f>
+        <f>SUMIF($A$4:$A$183,F5,$B$4:$B$183)</f>
         <v>-237063.41</v>
       </c>
       <c r="H5">
@@ -652,11 +652,11 @@
         <v>-95340.97</v>
       </c>
       <c r="J5">
-        <f>SUMIF($A$81:$A$144,$F5,$B$81:$B$144)</f>
+        <f>SUMIF($A$81:$A$145,$F5,$B$81:$B$145)</f>
         <v>-105407.44</v>
       </c>
       <c r="K5">
-        <f>SUMIF($A$145:$A$182,$F5,$B$145:$B$182)</f>
+        <f>SUMIF($A$146:$A$183,$F5,$B$146:$B$183)</f>
         <v>-10600</v>
       </c>
     </row>
@@ -677,8 +677,8 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIF($A$4:$A$182,F6,$B$4:$B$182)</f>
-        <v>259170.74000000002</v>
+        <f>SUMIF($A$4:$A$183,F6,$B$4:$B$183)</f>
+        <v>268670.74</v>
       </c>
       <c r="H6">
         <f>SUMIF($A$4:$A$12,$F6,$B$4:$B$12)</f>
@@ -689,11 +689,11 @@
         <v>111420.06</v>
       </c>
       <c r="J6">
-        <f>SUMIF($A$81:$A$144,$F6,$B$81:$B$144)</f>
-        <v>133047.66</v>
+        <f>SUMIF($A$81:$A$145,$F6,$B$81:$B$145)</f>
+        <v>142547.66</v>
       </c>
       <c r="K6">
-        <f>SUMIF($A$145:$A$182,$F6,$B$145:$B$182)</f>
+        <f>SUMIF($A$146:$A$183,$F6,$B$146:$B$183)</f>
         <v>0</v>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="G9">
         <f>SUM(G5:G6)</f>
-        <v>22107.330000000016</v>
+        <v>31607.329999999987</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9" si="0">SUM(H5:H6)</f>
@@ -755,7 +755,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>27640.22</v>
+        <v>37140.22</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
@@ -2282,13 +2282,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136">
-        <v>-5000</v>
+        <v>9500</v>
       </c>
       <c r="D136" s="1">
-        <v>43390</v>
+        <v>43388</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -2296,10 +2296,10 @@
         <v>1</v>
       </c>
       <c r="B137">
-        <v>-200</v>
+        <v>-5000</v>
       </c>
       <c r="D137" s="1">
-        <v>43387</v>
+        <v>43390</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,10 +2307,10 @@
         <v>1</v>
       </c>
       <c r="B138">
-        <v>-5000</v>
+        <v>-200</v>
       </c>
       <c r="D138" s="1">
-        <v>43391</v>
+        <v>43387</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,10 +2318,10 @@
         <v>1</v>
       </c>
       <c r="B139">
-        <v>-120</v>
+        <v>-5000</v>
       </c>
       <c r="D139" s="1">
-        <v>43394</v>
+        <v>43391</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -2329,10 +2329,10 @@
         <v>1</v>
       </c>
       <c r="B140">
-        <v>-2000</v>
+        <v>-120</v>
       </c>
       <c r="D140" s="1">
-        <v>43411</v>
+        <v>43394</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,54 +2340,54 @@
         <v>1</v>
       </c>
       <c r="B141">
-        <v>-1300</v>
+        <v>-2000</v>
       </c>
       <c r="D141" s="1">
-        <v>43417</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142">
-        <v>10500</v>
+        <v>-1300</v>
       </c>
       <c r="D142" s="1">
-        <v>43419</v>
+        <v>43417</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B143">
-        <v>-500</v>
+        <v>10500</v>
       </c>
       <c r="D143" s="1">
-        <v>43442</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144">
-        <v>13730</v>
+        <v>-500</v>
       </c>
       <c r="D144" s="1">
-        <v>43448</v>
+        <v>43442</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B145">
-        <v>-400</v>
+        <v>13730</v>
       </c>
       <c r="D145" s="1">
-        <v>43474</v>
+        <v>43448</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -2395,10 +2395,10 @@
         <v>1</v>
       </c>
       <c r="B146">
-        <v>-7000</v>
+        <v>-400</v>
       </c>
       <c r="D146" s="1">
-        <v>43476</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -2406,9 +2406,20 @@
         <v>1</v>
       </c>
       <c r="B147">
+        <v>-7000</v>
+      </c>
+      <c r="D147" s="1">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
         <v>-3200</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D148" s="1">
         <v>43479</v>
       </c>
     </row>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -547,10 +547,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1001)</f>
-        <v>31607.33</v>
+        <v>41607.33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -678,7 +678,7 @@
       </c>
       <c r="G6">
         <f>SUMIF($A$4:$A$183,F6,$B$4:$B$183)</f>
-        <v>268670.74</v>
+        <v>278670.74</v>
       </c>
       <c r="H6">
         <f>SUMIF($A$4:$A$12,$F6,$B$4:$B$12)</f>
@@ -694,7 +694,7 @@
       </c>
       <c r="K6">
         <f>SUMIF($A$146:$A$183,$F6,$B$146:$B$183)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
       </c>
       <c r="G9">
         <f>SUM(G5:G6)</f>
-        <v>31607.329999999987</v>
+        <v>41607.329999999987</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9" si="0">SUM(H5:H6)</f>
@@ -759,7 +759,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>-10600</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2421,6 +2421,17 @@
       </c>
       <c r="D148" s="1">
         <v>43479</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>10000</v>
+      </c>
+      <c r="D149" s="1">
+        <v>43480</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>type</t>
   </si>
@@ -152,6 +152,29 @@
     <t>合计</t>
     <rPh sb="0" eb="1">
       <t>he'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给老父亲买酒</t>
+    <rPh sb="0" eb="1">
+      <t>gei'lao'fu'qin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mai'jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100给了小靳</t>
+    <rPh sb="3" eb="4">
+      <t>gei'le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao'jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,10 +570,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +597,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1001)</f>
-        <v>41607.33</v>
+        <v>39507.33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -641,7 +664,7 @@
       </c>
       <c r="G5">
         <f>SUMIF($A$4:$A$183,F5,$B$4:$B$183)</f>
-        <v>-237063.41</v>
+        <v>-239163.41</v>
       </c>
       <c r="H5">
         <f>SUMIF($A$4:$A$12,$F5,$B$4:$B$12)</f>
@@ -657,7 +680,7 @@
       </c>
       <c r="K5">
         <f>SUMIF($A$146:$A$183,$F5,$B$146:$B$183)</f>
-        <v>-10600</v>
+        <v>-12700</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -743,7 +766,7 @@
       </c>
       <c r="G9">
         <f>SUM(G5:G6)</f>
-        <v>41607.329999999987</v>
+        <v>39507.329999999987</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9" si="0">SUM(H5:H6)</f>
@@ -759,7 +782,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>-600</v>
+        <v>-2700</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2432,6 +2455,45 @@
       </c>
       <c r="D149" s="1">
         <v>43480</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>-300</v>
+      </c>
+      <c r="D150" s="1">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>-1300</v>
+      </c>
+      <c r="C151" t="s">
+        <v>31</v>
+      </c>
+      <c r="D151" s="1">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>-500</v>
+      </c>
+      <c r="C152" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" s="1">
+        <v>43501</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>type</t>
   </si>
@@ -175,6 +175,13 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小提琴+other</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'ti'qin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,10 +577,10 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,7 +604,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1001)</f>
-        <v>39507.33</v>
+        <v>30007.33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -664,7 +671,7 @@
       </c>
       <c r="G5">
         <f>SUMIF($A$4:$A$183,F5,$B$4:$B$183)</f>
-        <v>-239163.41</v>
+        <v>-248663.41</v>
       </c>
       <c r="H5">
         <f>SUMIF($A$4:$A$12,$F5,$B$4:$B$12)</f>
@@ -680,7 +687,7 @@
       </c>
       <c r="K5">
         <f>SUMIF($A$146:$A$183,$F5,$B$146:$B$183)</f>
-        <v>-12700</v>
+        <v>-22200</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -766,7 +773,7 @@
       </c>
       <c r="G9">
         <f>SUM(G5:G6)</f>
-        <v>39507.329999999987</v>
+        <v>30007.329999999987</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9" si="0">SUM(H5:H6)</f>
@@ -782,7 +789,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>-2700</v>
+        <v>-12200</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2494,6 +2501,20 @@
       </c>
       <c r="D152" s="1">
         <v>43501</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>-9500</v>
+      </c>
+      <c r="C153" t="s">
+        <v>33</v>
+      </c>
+      <c r="D153" s="1">
+        <v>43509</v>
       </c>
     </row>
   </sheetData>

--- a/littlechi0822.xlsx
+++ b/littlechi0822.xlsx
@@ -577,7 +577,7 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
       <selection activeCell="D154" sqref="D154"/>
@@ -604,7 +604,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM(B4:B1001)</f>
-        <v>30007.33</v>
+        <v>40007.33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -708,7 +708,7 @@
       </c>
       <c r="G6">
         <f>SUMIF($A$4:$A$183,F6,$B$4:$B$183)</f>
-        <v>278670.74</v>
+        <v>288670.74</v>
       </c>
       <c r="H6">
         <f>SUMIF($A$4:$A$12,$F6,$B$4:$B$12)</f>
@@ -724,7 +724,7 @@
       </c>
       <c r="K6">
         <f>SUMIF($A$146:$A$183,$F6,$B$146:$B$183)</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
       </c>
       <c r="G9">
         <f>SUM(G5:G6)</f>
-        <v>30007.329999999987</v>
+        <v>40007.329999999987</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9" si="0">SUM(H5:H6)</f>
@@ -789,7 +789,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>-12200</v>
+        <v>-2200</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2515,6 +2515,17 @@
       </c>
       <c r="D153" s="1">
         <v>43509</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>10000</v>
+      </c>
+      <c r="D154" s="1">
+        <v>43511</v>
       </c>
     </row>
   </sheetData>
